--- a/Resource/excel/S-属性定义-玩家属性-(后端维护).xlsx
+++ b/Resource/excel/S-属性定义-玩家属性-(后端维护).xlsx
@@ -1061,10 +1061,10 @@
   <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="W5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
